--- a/XC-comparisons/18E-DAT_comparison.xlsx
+++ b/XC-comparisons/18E-DAT_comparison.xlsx
@@ -1978,7 +1978,7 @@
         <v>-47</v>
       </c>
       <c r="B55">
-        <v>-0.00100000000000122</v>
+        <v>0</v>
       </c>
       <c r="C55">
         <v>-3.5527136788005e-15</v>
@@ -2703,7 +2703,7 @@
         <v>-22</v>
       </c>
       <c r="B80">
-        <v>-0.000999999999997669</v>
+        <v>0</v>
       </c>
       <c r="C80">
         <v>7.105427357601e-15</v>
@@ -3138,7 +3138,7 @@
         <v>-7</v>
       </c>
       <c r="B95">
-        <v>-0.000999999999997669</v>
+        <v>0</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -3834,7 +3834,7 @@
         <v>17</v>
       </c>
       <c r="B119">
-        <v>-0.000999999999990564</v>
+        <v>0</v>
       </c>
       <c r="C119">
         <v>0</v>
@@ -4211,7 +4211,7 @@
         <v>30</v>
       </c>
       <c r="B132">
-        <v>-0.000999999999990564</v>
+        <v>0</v>
       </c>
       <c r="C132">
         <v>0</v>
@@ -4269,7 +4269,7 @@
         <v>32</v>
       </c>
       <c r="B134">
-        <v>-0.000999999999990564</v>
+        <v>0</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -4327,7 +4327,7 @@
         <v>34</v>
       </c>
       <c r="B136">
-        <v>-0.00100000000000477</v>
+        <v>0</v>
       </c>
       <c r="C136">
         <v>0</v>
@@ -4501,7 +4501,7 @@
         <v>40</v>
       </c>
       <c r="B142">
-        <v>-0.00100000000000477</v>
+        <v>-7.105427357601e-15</v>
       </c>
       <c r="C142">
         <v>7.105427357601e-15</v>
@@ -4559,7 +4559,7 @@
         <v>42</v>
       </c>
       <c r="B144">
-        <v>-0.000999999999997669</v>
+        <v>7.105427357601e-15</v>
       </c>
       <c r="C144">
         <v>7.105427357601e-15</v>
@@ -13720,7 +13720,7 @@
         <v>-47</v>
       </c>
       <c r="B55">
-        <v>29.336</v>
+        <v>29.337</v>
       </c>
       <c r="C55">
         <v>29.403</v>
@@ -14445,7 +14445,7 @@
         <v>-22</v>
       </c>
       <c r="B80">
-        <v>48.369</v>
+        <v>48.37</v>
       </c>
       <c r="C80">
         <v>48.447</v>
@@ -14880,7 +14880,7 @@
         <v>-7</v>
       </c>
       <c r="B95">
-        <v>55.264</v>
+        <v>55.265</v>
       </c>
       <c r="C95">
         <v>55.385</v>
@@ -15576,7 +15576,7 @@
         <v>17</v>
       </c>
       <c r="B119">
-        <v>71.691</v>
+        <v>71.692</v>
       </c>
       <c r="C119">
         <v>72.376</v>
@@ -15953,7 +15953,7 @@
         <v>30</v>
       </c>
       <c r="B132">
-        <v>66.531</v>
+        <v>66.532</v>
       </c>
       <c r="C132">
         <v>67.225</v>
@@ -16011,7 +16011,7 @@
         <v>32</v>
       </c>
       <c r="B134">
-        <v>64.498</v>
+        <v>64.499</v>
       </c>
       <c r="C134">
         <v>65.051</v>
@@ -16069,7 +16069,7 @@
         <v>34</v>
       </c>
       <c r="B136">
-        <v>62.105</v>
+        <v>62.106</v>
       </c>
       <c r="C136">
         <v>62.519</v>
@@ -16243,7 +16243,7 @@
         <v>40</v>
       </c>
       <c r="B142">
-        <v>53.015</v>
+        <v>53.016</v>
       </c>
       <c r="C142">
         <v>53.134</v>
@@ -16301,7 +16301,7 @@
         <v>42</v>
       </c>
       <c r="B144">
-        <v>49.571</v>
+        <v>49.572</v>
       </c>
       <c r="C144">
         <v>49.639</v>
@@ -19591,7 +19591,7 @@
         <v>-47</v>
       </c>
       <c r="B55">
-        <v>-0.00340878101991145</v>
+        <v>0</v>
       </c>
       <c r="C55">
         <v>-1.20828271904244e-14</v>
@@ -20316,7 +20316,7 @@
         <v>-22</v>
       </c>
       <c r="B80">
-        <v>-0.0020674398891804</v>
+        <v>0</v>
       </c>
       <c r="C80">
         <v>1.46663928779924e-14</v>
@@ -20751,7 +20751,7 @@
         <v>-7</v>
       </c>
       <c r="B95">
-        <v>-0.00180949623624361</v>
+        <v>0</v>
       </c>
       <c r="C95">
         <v>0</v>
@@ -21447,7 +21447,7 @@
         <v>17</v>
       </c>
       <c r="B119">
-        <v>-0.00139487522839766</v>
+        <v>0</v>
       </c>
       <c r="C119">
         <v>0</v>
@@ -21824,7 +21824,7 @@
         <v>30</v>
       </c>
       <c r="B132">
-        <v>-0.00150305872449018</v>
+        <v>0</v>
       </c>
       <c r="C132">
         <v>0</v>
@@ -21882,7 +21882,7 @@
         <v>32</v>
       </c>
       <c r="B134">
-        <v>-0.00155043567240932</v>
+        <v>0</v>
       </c>
       <c r="C134">
         <v>0</v>
@@ -21940,7 +21940,7 @@
         <v>34</v>
       </c>
       <c r="B136">
-        <v>-0.0016101763143141</v>
+        <v>0</v>
       </c>
       <c r="C136">
         <v>0</v>
@@ -22114,7 +22114,7 @@
         <v>40</v>
       </c>
       <c r="B142">
-        <v>-0.0018862586060639</v>
+        <v>-1.34024206986589e-14</v>
       </c>
       <c r="C142">
         <v>1.33726565995427e-14</v>
@@ -22172,7 +22172,7 @@
         <v>42</v>
       </c>
       <c r="B144">
-        <v>-0.00201730850698527</v>
+        <v>1.43335499023663e-14</v>
       </c>
       <c r="C144">
         <v>1.43142032627591e-14</v>
